--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5289418159491108</v>
+        <v>0.5292044909545227</v>
       </c>
       <c r="C2">
-        <v>0.6808436884481937</v>
+        <v>0.678826866322334</v>
       </c>
       <c r="D2">
-        <v>0.7409311282091716</v>
+        <v>0.739899615432439</v>
       </c>
       <c r="E2">
-        <v>0.7679607490122742</v>
+        <v>0.7653563574070629</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.5333393084653052</v>
+        <v>0.5348675326294656</v>
       </c>
       <c r="C3">
-        <v>0.6834344996099716</v>
+        <v>0.6839437062193391</v>
       </c>
       <c r="D3">
-        <v>0.7446850036317673</v>
+        <v>0.7431061246380334</v>
       </c>
       <c r="E3">
-        <v>0.7693718611195491</v>
+        <v>0.767545930173578</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.4782233618025287</v>
+        <v>0.4753858453573038</v>
       </c>
       <c r="C4">
-        <v>0.6465004350508846</v>
+        <v>0.6449467475171032</v>
       </c>
       <c r="D4">
-        <v>0.7233213594832695</v>
+        <v>0.7215458874735288</v>
       </c>
       <c r="E4">
-        <v>0.7511795434102649</v>
+        <v>0.7489833093671484</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.5317623844112157</v>
+        <v>0.5339142996764678</v>
       </c>
       <c r="C5">
-        <v>0.6856683851356788</v>
+        <v>0.6864429141796565</v>
       </c>
       <c r="D5">
-        <v>0.7445591475682957</v>
+        <v>0.7436580617940645</v>
       </c>
       <c r="E5">
-        <v>0.7739091131583816</v>
+        <v>0.7722547943492591</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.5040228904184106</v>
+        <v>0.5062968331428027</v>
       </c>
       <c r="C6">
-        <v>0.6669699679740744</v>
+        <v>0.6673089282778126</v>
       </c>
       <c r="D6">
-        <v>0.7367427337645944</v>
+        <v>0.7357746999847482</v>
       </c>
       <c r="E6">
-        <v>0.7680817454482216</v>
+        <v>0.766576297593929</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.5599693610635161</v>
+        <v>0.5625672726102521</v>
       </c>
       <c r="C7">
-        <v>0.7039716111796652</v>
+        <v>0.7051670157368789</v>
       </c>
       <c r="D7">
-        <v>0.7596023721782627</v>
+        <v>0.7585522726615487</v>
       </c>
       <c r="E7">
-        <v>0.774853009469879</v>
+        <v>0.7730594823287936</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.2590151784712137</v>
+        <v>0.2571093819663559</v>
       </c>
       <c r="C8">
-        <v>0.4698328281409978</v>
+        <v>0.466464064824418</v>
       </c>
       <c r="D8">
-        <v>0.6062199347091736</v>
+        <v>0.6022878936784698</v>
       </c>
       <c r="E8">
-        <v>0.7084483865663019</v>
+        <v>0.7053807860549471</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.4968606559146112</v>
+        <v>0.4971649692636496</v>
       </c>
       <c r="C9">
-        <v>0.6517947161729121</v>
+        <v>0.6519148713952458</v>
       </c>
       <c r="D9">
-        <v>0.7269928428030368</v>
+        <v>0.7261943490557077</v>
       </c>
       <c r="E9">
-        <v>0.7553342410886629</v>
+        <v>0.7539730207653869</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.5922407218676889</v>
+        <v>0.5948536767995212</v>
       </c>
       <c r="C10">
-        <v>0.7341472260398691</v>
+        <v>0.7341654369609846</v>
       </c>
       <c r="D10">
-        <v>0.7763229825284015</v>
+        <v>0.7743276069489899</v>
       </c>
       <c r="E10">
-        <v>0.7919050820624624</v>
+        <v>0.790092921855691</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.58501569800617</v>
+        <v>0.5887919840217942</v>
       </c>
       <c r="C11">
-        <v>0.7300751771682932</v>
+        <v>0.7300701472138008</v>
       </c>
       <c r="D11">
-        <v>0.7728310455002891</v>
+        <v>0.7720118857993419</v>
       </c>
       <c r="E11">
-        <v>0.7904327098090828</v>
+        <v>0.7882143195690925</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.5401193627305241</v>
+        <v>0.5416740563608959</v>
       </c>
       <c r="C12">
-        <v>0.6976650240139889</v>
+        <v>0.6980149801332342</v>
       </c>
       <c r="D12">
-        <v>0.7589548724890005</v>
+        <v>0.7574339153657651</v>
       </c>
       <c r="E12">
-        <v>0.7750006312069551</v>
+        <v>0.7731175937837654</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.5771402931937805</v>
+        <v>0.5790612702473026</v>
       </c>
       <c r="C13">
-        <v>0.7240314175441057</v>
+        <v>0.7235535682577257</v>
       </c>
       <c r="D13">
-        <v>0.7705532770430568</v>
+        <v>0.7686031626159526</v>
       </c>
       <c r="E13">
-        <v>0.7877927396491952</v>
+        <v>0.7854760679862451</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5292044909545227</v>
+        <v>0.5582697136662433</v>
       </c>
       <c r="C2">
-        <v>0.678826866322334</v>
+        <v>0.7020990846397795</v>
       </c>
       <c r="D2">
-        <v>0.739899615432439</v>
+        <v>0.7536277294702586</v>
       </c>
       <c r="E2">
-        <v>0.7653563574070629</v>
+        <v>0.7747833279462306</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.5348675326294656</v>
+        <v>0.5655495099421098</v>
       </c>
       <c r="C3">
-        <v>0.6839437062193391</v>
+        <v>0.7079339602863506</v>
       </c>
       <c r="D3">
-        <v>0.7431061246380334</v>
+        <v>0.7570069272544382</v>
       </c>
       <c r="E3">
-        <v>0.767545930173578</v>
+        <v>0.7770276209792533</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.4753858453573038</v>
+        <v>0.5016439196761076</v>
       </c>
       <c r="C4">
-        <v>0.6449467475171032</v>
+        <v>0.6671393909086752</v>
       </c>
       <c r="D4">
-        <v>0.7215458874735288</v>
+        <v>0.7349999972699376</v>
       </c>
       <c r="E4">
-        <v>0.7489833093671484</v>
+        <v>0.7582039047428399</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.5339142996764678</v>
+        <v>0.5676563923828505</v>
       </c>
       <c r="C5">
-        <v>0.6864429141796565</v>
+        <v>0.7116557279080611</v>
       </c>
       <c r="D5">
-        <v>0.7436580617940645</v>
+        <v>0.7577576192567733</v>
       </c>
       <c r="E5">
-        <v>0.7722547943492591</v>
+        <v>0.7817840426466831</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.5062968331428027</v>
+        <v>0.5388075863301401</v>
       </c>
       <c r="C6">
-        <v>0.6673089282778126</v>
+        <v>0.6921269154972672</v>
       </c>
       <c r="D6">
-        <v>0.7357746999847482</v>
+        <v>0.7497759552333861</v>
       </c>
       <c r="E6">
-        <v>0.766576297593929</v>
+        <v>0.7760571709281976</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.5625672726102521</v>
+        <v>0.5982250303273913</v>
       </c>
       <c r="C7">
-        <v>0.7051670157368789</v>
+        <v>0.7311301017741306</v>
       </c>
       <c r="D7">
-        <v>0.7585522726615487</v>
+        <v>0.7729662477052786</v>
       </c>
       <c r="E7">
-        <v>0.7730594823287936</v>
+        <v>0.7826180338824664</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.2571093819663559</v>
+        <v>0.2714089355384538</v>
       </c>
       <c r="C8">
-        <v>0.466464064824418</v>
+        <v>0.4825273335458954</v>
       </c>
       <c r="D8">
-        <v>0.6022878936784698</v>
+        <v>0.6135086850507573</v>
       </c>
       <c r="E8">
-        <v>0.7053807860549471</v>
+        <v>0.71399605079497</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.4971649692636496</v>
+        <v>0.5289994715570385</v>
       </c>
       <c r="C9">
-        <v>0.6519148713952458</v>
+        <v>0.6760054899001348</v>
       </c>
       <c r="D9">
-        <v>0.7261943490557077</v>
+        <v>0.7399637731815616</v>
       </c>
       <c r="E9">
-        <v>0.7539730207653869</v>
+        <v>0.763268773452269</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.5948536767995212</v>
+        <v>0.6289567929654097</v>
       </c>
       <c r="C10">
-        <v>0.7341654369609846</v>
+        <v>0.7598594951260311</v>
       </c>
       <c r="D10">
-        <v>0.7743276069489899</v>
+        <v>0.7888481291569622</v>
       </c>
       <c r="E10">
-        <v>0.790092921855691</v>
+        <v>0.7998265137805515</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.5887919840217942</v>
+        <v>0.6226942439590685</v>
       </c>
       <c r="C11">
-        <v>0.7300701472138008</v>
+        <v>0.7556771256224231</v>
       </c>
       <c r="D11">
-        <v>0.7720118857993419</v>
+        <v>0.7865039493820257</v>
       </c>
       <c r="E11">
-        <v>0.7882143195690925</v>
+        <v>0.7979297844464777</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.5416740563608959</v>
+        <v>0.5745126601619753</v>
       </c>
       <c r="C12">
-        <v>0.6980149801332342</v>
+        <v>0.7231763437576213</v>
       </c>
       <c r="D12">
-        <v>0.7574339153657651</v>
+        <v>0.7717791700251481</v>
       </c>
       <c r="E12">
-        <v>0.7731175937837654</v>
+        <v>0.7826881838904574</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.5790612702473026</v>
+        <v>0.6127564029467489</v>
       </c>
       <c r="C13">
-        <v>0.7235535682577257</v>
+        <v>0.7490676502734643</v>
       </c>
       <c r="D13">
-        <v>0.7686031626159526</v>
+        <v>0.7830607682763813</v>
       </c>
       <c r="E13">
-        <v>0.7854760679862451</v>
+        <v>0.7951664937103869</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_OV.xlsx
@@ -388,10 +388,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5582697136662433</v>
+        <v>0.5582697136662432</v>
       </c>
       <c r="C2">
-        <v>0.7020990846397795</v>
+        <v>0.7020990846397797</v>
       </c>
       <c r="D2">
         <v>0.7536277294702586</v>
@@ -408,7 +408,7 @@
         <v>0.5655495099421098</v>
       </c>
       <c r="C3">
-        <v>0.7079339602863506</v>
+        <v>0.7079339602863507</v>
       </c>
       <c r="D3">
         <v>0.7570069272544382</v>
@@ -422,7 +422,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.5016439196761076</v>
+        <v>0.5016439196761074</v>
       </c>
       <c r="C4">
         <v>0.6671393909086752</v>
@@ -439,10 +439,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.5676563923828505</v>
+        <v>0.5676563923828503</v>
       </c>
       <c r="C5">
-        <v>0.7116557279080611</v>
+        <v>0.7116557279080613</v>
       </c>
       <c r="D5">
         <v>0.7577576192567733</v>
@@ -459,7 +459,7 @@
         <v>0.5388075863301401</v>
       </c>
       <c r="C6">
-        <v>0.6921269154972672</v>
+        <v>0.6921269154972673</v>
       </c>
       <c r="D6">
         <v>0.7497759552333861</v>
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.5982250303273913</v>
+        <v>0.5982250303273912</v>
       </c>
       <c r="C7">
         <v>0.7311301017741306</v>
@@ -490,10 +490,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.2714089355384538</v>
+        <v>0.2714089355384537</v>
       </c>
       <c r="C8">
-        <v>0.4825273335458954</v>
+        <v>0.4825273335458955</v>
       </c>
       <c r="D8">
         <v>0.6135086850507573</v>
@@ -510,7 +510,7 @@
         <v>0.5289994715570385</v>
       </c>
       <c r="C9">
-        <v>0.6760054899001348</v>
+        <v>0.6760054899001349</v>
       </c>
       <c r="D9">
         <v>0.7399637731815616</v>
@@ -527,7 +527,7 @@
         <v>0.6289567929654097</v>
       </c>
       <c r="C10">
-        <v>0.7598594951260311</v>
+        <v>0.7598594951260313</v>
       </c>
       <c r="D10">
         <v>0.7888481291569622</v>
@@ -541,10 +541,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.6226942439590685</v>
+        <v>0.6226942439590684</v>
       </c>
       <c r="C11">
-        <v>0.7556771256224231</v>
+        <v>0.7556771256224232</v>
       </c>
       <c r="D11">
         <v>0.7865039493820257</v>
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.5745126601619753</v>
+        <v>0.5745126601619752</v>
       </c>
       <c r="C12">
-        <v>0.7231763437576213</v>
+        <v>0.7231763437576214</v>
       </c>
       <c r="D12">
         <v>0.7717791700251481</v>
       </c>
       <c r="E12">
-        <v>0.7826881838904574</v>
+        <v>0.7826881838904572</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,10 +575,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.6127564029467489</v>
+        <v>0.6127564029467488</v>
       </c>
       <c r="C13">
-        <v>0.7490676502734643</v>
+        <v>0.7490676502734644</v>
       </c>
       <c r="D13">
         <v>0.7830607682763813</v>
